--- a/data/trans_orig/IP1012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B9A838-AD05-42A5-8C27-3AB15A45FB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7156996F-3D0D-4363-BC65-C36FC793C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F865A17-F8DD-4E07-802B-0378C9D971DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97A527AD-882D-4C95-9205-4F776C69FFC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,13 +106,13 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>98,54%</t>
@@ -121,13 +121,13 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,42%</t>
+    <t>96,11%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,1%</t>
+    <t>97,83%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -136,340 +136,346 @@
     <t>0,78%</t>
   </si>
   <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>97,04%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -478,16 +484,13 @@
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>98,22%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>0,19%</t>
@@ -496,13 +499,10 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -511,7 +511,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,55%</t>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663E4F0-B98B-4948-A206-D7DA9BFA8C29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBDB3E5-BC22-4E0F-9A67-B27663FC6C83}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1685,7 +1685,7 @@
         <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1694,13 +1694,13 @@
         <v>7698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,7 +1718,7 @@
         <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -1730,13 +1730,13 @@
         <v>679012</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>2093</v>
@@ -1745,13 +1745,13 @@
         <v>1396023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,7 +1807,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25C632C-4E3A-40B1-9F84-8A28C4A93DB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733C39E4-7D69-4825-AC8C-2CBA5092C00E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1844,7 +1844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2100,13 +2100,13 @@
         <v>1831</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2130,13 +2130,13 @@
         <v>1831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,10 +2151,10 @@
         <v>82512</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2169,7 +2169,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2181,10 +2181,10 @@
         <v>174401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2255,13 +2255,13 @@
         <v>2969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2270,13 +2270,13 @@
         <v>2318</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2285,13 +2285,13 @@
         <v>5287</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2306,13 @@
         <v>489435</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
@@ -2321,10 +2321,10 @@
         <v>447382</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>44</v>
@@ -2336,13 +2336,13 @@
         <v>936816</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2410,13 @@
         <v>1272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2425,13 +2425,13 @@
         <v>926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2440,13 +2440,13 @@
         <v>2197</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,10 +2461,10 @@
         <v>170289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -2476,10 +2476,10 @@
         <v>164414</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2491,13 +2491,13 @@
         <v>334704</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2565,13 @@
         <v>6072</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -2580,13 +2580,13 @@
         <v>3243</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2595,13 +2595,13 @@
         <v>9315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2616,13 @@
         <v>742877</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>1014</v>
@@ -2631,10 +2631,10 @@
         <v>703685</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>121</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C8AA7B-46BA-43B5-8275-C74FDF3739A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99353F4B-0275-4D5B-BFEC-07A5BB5099EC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3180,7 +3180,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,10 +3195,10 @@
         <v>488117</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3225,10 +3225,10 @@
         <v>960407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3299,13 +3299,13 @@
         <v>2118</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3329,13 +3329,13 @@
         <v>2118</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3350,13 @@
         <v>185377</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>258</v>
@@ -3368,7 +3368,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3380,13 +3380,13 @@
         <v>358079</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3454,13 @@
         <v>2736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3484,13 +3484,13 @@
         <v>2736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3505,7 @@
         <v>742108</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>154</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7156996F-3D0D-4363-BC65-C36FC793C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD042FC4-35FE-4DA0-92C6-74F416377F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97A527AD-882D-4C95-9205-4F776C69FFC5}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{B148368B-AA57-47B4-AEF7-EA2ADAAD94B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="153">
   <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,274 +67,286 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,59%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,54%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>92,09%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -343,67 +355,64 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>97,15%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>98,19%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>1,16%</t>
   </si>
   <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>98,38%</t>
   </si>
   <si>
     <t>99,36%</t>
@@ -412,85 +421,64 @@
     <t>98,84%</t>
   </si>
   <si>
+    <t>99,66%</t>
+  </si>
+  <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>2,13%</t>
+  </si>
+  <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
     <t>1,02%</t>
   </si>
   <si>
+    <t>97,87%</t>
+  </si>
+  <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>0,69%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,86%</t>
   </si>
   <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,14%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,89%</t>
   </si>
   <si>
     <t>0,19%</t>
@@ -499,19 +487,13 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
     <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -926,8 +908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBDB3E5-BC22-4E0F-9A67-B27663FC6C83}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0708C0A-4728-472A-B041-241AFAF15F4D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1044,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1061,79 +1043,83 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90225</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86845</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>177070</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1142,52 +1128,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1199,94 +1187,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>642</v>
+        <v>3723</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>642</v>
+        <v>3723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D8" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>135</v>
+        <v>714</v>
       </c>
       <c r="I8" s="7">
-        <v>90225</v>
+        <v>473268</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>265</v>
+        <v>1342</v>
       </c>
       <c r="N8" s="7">
-        <v>177070</v>
+        <v>889355</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,153 +1283,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3723</v>
+        <v>1367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>3723</v>
+        <v>3333</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>714</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>473268</v>
+        <v>172699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>628</v>
+        <v>233</v>
       </c>
       <c r="I11" s="7">
-        <v>416087</v>
+        <v>156172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>1342</v>
+        <v>485</v>
       </c>
       <c r="N11" s="7">
-        <v>889355</v>
+        <v>328872</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,54 +1438,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1506,97 +1494,97 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1966</v>
+        <v>2009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>1367</v>
+        <v>5689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="7">
         <v>11</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
       <c r="N13" s="7">
-        <v>3333</v>
+        <v>7698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>233</v>
+        <v>1015</v>
       </c>
       <c r="D14" s="7">
-        <v>156172</v>
+        <v>679012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>252</v>
+        <v>1077</v>
       </c>
       <c r="I14" s="7">
-        <v>172699</v>
+        <v>716285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>485</v>
+        <v>2092</v>
       </c>
       <c r="N14" s="7">
-        <v>328872</v>
+        <v>1395297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,216 +1593,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5689</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2009</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7698</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1078</v>
-      </c>
-      <c r="D17" s="7">
-        <v>717011</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679012</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1396023</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
+      <c r="A16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1827,8 +1659,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733C39E4-7D69-4825-AC8C-2CBA5092C00E}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56836A85-AE79-40FE-82A5-EED80BB68130}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1844,7 +1676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1951,90 +1783,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1831</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1831</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I5" s="7">
+        <v>82512</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>174401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,151 +1879,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="I6" s="7">
+        <v>84343</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>176232</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1831</v>
+        <v>2318</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>1831</v>
+        <v>5287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>648</v>
       </c>
       <c r="D8" s="7">
-        <v>82512</v>
+        <v>447382</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>701</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>489435</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
-        <v>249</v>
+        <v>1349</v>
       </c>
       <c r="N8" s="7">
-        <v>174401</v>
+        <v>936816</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,153 +2034,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>118</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>84343</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>251</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>176232</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2969</v>
+        <v>926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1272</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="7">
         <v>3</v>
       </c>
-      <c r="I10" s="7">
-        <v>2318</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="7">
-        <v>7</v>
-      </c>
       <c r="N10" s="7">
-        <v>5287</v>
+        <v>2197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>701</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>489435</v>
+        <v>164414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>648</v>
+        <v>241</v>
       </c>
       <c r="I11" s="7">
-        <v>447382</v>
+        <v>170289</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1349</v>
+        <v>474</v>
       </c>
       <c r="N11" s="7">
-        <v>936816</v>
+        <v>334704</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,153 +2189,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1272</v>
+        <v>3243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>926</v>
+        <v>6072</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>2197</v>
+        <v>9315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>241</v>
+        <v>1014</v>
       </c>
       <c r="D14" s="7">
-        <v>170289</v>
+        <v>703685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>1058</v>
       </c>
       <c r="I14" s="7">
-        <v>164414</v>
+        <v>742235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
-        <v>474</v>
+        <v>2072</v>
       </c>
       <c r="N14" s="7">
-        <v>334704</v>
+        <v>1445921</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,216 +2344,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1066</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>748307</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2084</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1455236</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7">
-        <v>6072</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3243</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="7">
-        <v>12</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9315</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D17" s="7">
-        <v>742877</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I17" s="7">
-        <v>703685</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2073</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1446562</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1067</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748949</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2085</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455877</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
+      <c r="A16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2728,8 +2410,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99353F4B-0275-4D5B-BFEC-07A5BB5099EC}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7628CBBD-EFBD-4940-9DB9-6453FD545A8E}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2745,7 +2427,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2848,86 +2530,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127993</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,147 +2630,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>713</v>
       </c>
       <c r="D8" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>694</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>488117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>1407</v>
       </c>
       <c r="N8" s="7">
-        <v>127993</v>
+        <v>960407</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,153 +2785,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>2118</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>618</v>
+        <v>2118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>694</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>488117</v>
+        <v>172703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>713</v>
+        <v>268</v>
       </c>
       <c r="I11" s="7">
-        <v>472290</v>
+        <v>185377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
-        <v>1407</v>
+        <v>526</v>
       </c>
       <c r="N11" s="7">
-        <v>960407</v>
+        <v>358079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,153 +2940,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2118</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>2118</v>
+        <v>2736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>268</v>
+        <v>1060</v>
       </c>
       <c r="D14" s="7">
-        <v>185377</v>
+        <v>704371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>1061</v>
       </c>
       <c r="I14" s="7">
-        <v>172703</v>
+        <v>742108</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
-        <v>526</v>
+        <v>2121</v>
       </c>
       <c r="N14" s="7">
-        <v>358079</v>
+        <v>1446479</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,216 +3095,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2736</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2736</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D17" s="7">
-        <v>742108</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2121</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1446479</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
+      <c r="A16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
